--- a/data/acemasiran--pesrev--devrikebir----neyzen_salih_dede/28e05732-8a5c-4f57-ac66-42dcd8f16779/changes.xlsx
+++ b/data/acemasiran--pesrev--devrikebir----neyzen_salih_dede/28e05732-8a5c-4f57-ac66-42dcd8f16779/changes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1.Hane" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>Note</t>
   </si>
@@ -101,61 +101,31 @@
     <t>n71</t>
   </si>
   <si>
-    <t>n10</t>
-  </si>
-  <si>
-    <t>Unnecessary</t>
-  </si>
-  <si>
-    <t>n14</t>
-  </si>
-  <si>
-    <t>B4b4</t>
-  </si>
-  <si>
-    <t>n48</t>
-  </si>
-  <si>
-    <t>n50</t>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>n13</t>
   </si>
   <si>
     <t>not played</t>
   </si>
   <si>
-    <t>n51</t>
-  </si>
-  <si>
-    <t>n52</t>
-  </si>
-  <si>
-    <t>n53</t>
+    <t>n37</t>
+  </si>
+  <si>
+    <t>n40</t>
+  </si>
+  <si>
+    <t>Re-verb</t>
+  </si>
+  <si>
+    <t>n83</t>
+  </si>
+  <si>
+    <t>n84</t>
   </si>
   <si>
     <t>n85</t>
-  </si>
-  <si>
-    <t>n87</t>
-  </si>
-  <si>
-    <t>B5b5</t>
-  </si>
-  <si>
-    <t>n13</t>
-  </si>
-  <si>
-    <t>n37</t>
-  </si>
-  <si>
-    <t>n40</t>
-  </si>
-  <si>
-    <t>Re-verb</t>
-  </si>
-  <si>
-    <t>n83</t>
-  </si>
-  <si>
-    <t>n84</t>
   </si>
 </sst>
 </file>
@@ -231,12 +201,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,13 +549,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36296296296296"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8888888888889"/>
@@ -615,166 +581,12 @@
         <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="D13" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -796,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,10 +638,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3.24</v>
@@ -854,7 +666,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
@@ -868,10 +680,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3.42</v>
@@ -924,7 +736,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
@@ -938,7 +750,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
@@ -952,7 +764,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>

--- a/data/acemasiran--pesrev--devrikebir----neyzen_salih_dede/28e05732-8a5c-4f57-ac66-42dcd8f16779/changes.xlsx
+++ b/data/acemasiran--pesrev--devrikebir----neyzen_salih_dede/28e05732-8a5c-4f57-ac66-42dcd8f16779/changes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
   <si>
     <t>Note</t>
   </si>
@@ -104,10 +104,16 @@
     <t>A5</t>
   </si>
   <si>
+    <t>not played</t>
+  </si>
+  <si>
+    <t>n14</t>
+  </si>
+  <si>
+    <t>B4b4</t>
+  </si>
+  <si>
     <t>n13</t>
-  </si>
-  <si>
-    <t>not played</t>
   </si>
   <si>
     <t>n37</t>
@@ -549,10 +555,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,6 +593,76 @@
         <v>2.13</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -638,10 +714,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3.24</v>
@@ -666,7 +742,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
@@ -680,10 +756,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3.42</v>
@@ -736,7 +812,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
@@ -750,7 +826,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
@@ -764,7 +840,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>

--- a/data/acemasiran--pesrev--devrikebir----neyzen_salih_dede/28e05732-8a5c-4f57-ac66-42dcd8f16779/changes.xlsx
+++ b/data/acemasiran--pesrev--devrikebir----neyzen_salih_dede/28e05732-8a5c-4f57-ac66-42dcd8f16779/changes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.Hane" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
   <si>
     <t>Note</t>
   </si>
@@ -56,6 +56,9 @@
     <t>D5</t>
   </si>
   <si>
+    <t>C5</t>
+  </si>
+  <si>
     <t>n68</t>
   </si>
   <si>
@@ -71,7 +74,7 @@
     <t>new note</t>
   </si>
   <si>
-    <t>G#5</t>
+    <t>A5b4</t>
   </si>
   <si>
     <t>E5</t>
@@ -229,10 +232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -315,7 +318,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -329,16 +332,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>51.6</v>
+        <v>41</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,10 +349,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1.02</v>
+        <v>51.6</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>6</v>
@@ -357,29 +360,43 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="0" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>1.07</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -401,8 +418,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,13 +446,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
@@ -443,13 +460,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -457,10 +474,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1.15</v>
@@ -471,7 +488,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
@@ -485,7 +502,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -499,10 +516,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1.37</v>
@@ -513,7 +530,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
@@ -527,10 +544,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1.54</v>
@@ -557,7 +574,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -584,10 +601,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2.13</v>
@@ -598,10 +615,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2.19</v>
@@ -612,10 +629,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2.2</v>
@@ -626,10 +643,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2.34</v>
@@ -643,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2.49</v>
@@ -657,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2.53</v>
@@ -714,10 +731,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3.24</v>
@@ -731,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3.32</v>
@@ -742,7 +759,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
@@ -756,10 +773,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3.42</v>
@@ -770,7 +787,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -784,10 +801,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3.5</v>
@@ -798,7 +815,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
@@ -812,7 +829,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
@@ -826,7 +843,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
@@ -840,7 +857,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
